--- a/feedback_forms/testing_versions/standard/oil_and_gas_operator_feedback_v070_test_02_bad_data.xlsx
+++ b/feedback_forms/testing_versions/standard/oil_and_gas_operator_feedback_v070_test_02_bad_data.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tony_local\pycharm\feedback_portal\feedback_forms\testing_versions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\local\cursor\feedback_portal\feedback_forms\testing_versions\standard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC4243A-32F1-406F-A8AD-298D5A8CD6AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6606369A-059C-418A-AE9A-7C57F3B125FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Zhif8xWJaaT59PJC6XZoiOIMEFGhshymHXermg9Z6T+783lTHl9y1WBD9JGUGcTG5BH05UvoqkoKPFFiU+tS0g==" workbookSaltValue="ffl06+cUclpuK/XVyrMBKw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="3927" yWindow="1360" windowWidth="19200" windowHeight="11387" xr2:uid="{AD2102A5-37B4-471F-BCEC-083B2F5B9811}"/>
+    <workbookView xWindow="3429" yWindow="3977" windowWidth="21728" windowHeight="13260" xr2:uid="{AD2102A5-37B4-471F-BCEC-083B2F5B9811}"/>
   </bookViews>
   <sheets>
     <sheet name="Feedback Form" sheetId="5" r:id="rId1"/>
@@ -3154,20 +3154,22 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:AG76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.1171875" customWidth="1"/>
-    <col min="2" max="2" width="65.703125" customWidth="1"/>
-    <col min="3" max="3" width="4.703125" customWidth="1"/>
-    <col min="4" max="4" width="65.703125" customWidth="1"/>
-    <col min="5" max="5" width="4.1171875" customWidth="1"/>
-    <col min="6" max="6" width="5.703125" style="25" customWidth="1"/>
-    <col min="7" max="8" width="5.703125" customWidth="1"/>
+    <col min="1" max="1" width="4.07421875" customWidth="1"/>
+    <col min="2" max="2" width="65.69140625" customWidth="1"/>
+    <col min="3" max="3" width="4.69140625" customWidth="1"/>
+    <col min="4" max="4" width="65.69140625" customWidth="1"/>
+    <col min="5" max="5" width="4.07421875" customWidth="1"/>
+    <col min="6" max="6" width="5.69140625" style="25" customWidth="1"/>
+    <col min="7" max="8" width="5.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
@@ -3203,7 +3205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:33" s="26" customFormat="1" ht="51" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:33" s="26" customFormat="1" ht="51" x14ac:dyDescent="0.4">
       <c r="B2" s="27" t="s">
         <v>1</v>
       </c>
@@ -3212,7 +3214,7 @@
       <c r="E2" s="27"/>
       <c r="F2" s="43"/>
     </row>
-    <row r="3" spans="2:33" s="26" customFormat="1" ht="51" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:33" s="26" customFormat="1" ht="51" x14ac:dyDescent="0.4">
       <c r="B3" s="27" t="s">
         <v>2</v>
       </c>
@@ -3221,14 +3223,14 @@
       <c r="E3" s="27"/>
       <c r="F3" s="43"/>
     </row>
-    <row r="4" spans="2:33" s="26" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="2:33" s="26" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
       <c r="E4" s="29"/>
       <c r="F4" s="43"/>
     </row>
-    <row r="5" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B5" s="24"/>
       <c r="C5" s="24"/>
       <c r="D5" s="24"/>
@@ -3264,7 +3266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:33" s="30" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:33" s="30" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="44"/>
       <c r="C6" s="44"/>
       <c r="D6" s="44"/>
@@ -3298,7 +3300,7 @@
       <c r="AF6" s="45"/>
       <c r="AG6" s="45"/>
     </row>
-    <row r="7" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B7" s="24"/>
       <c r="C7" s="24"/>
       <c r="D7" s="24"/>
@@ -3334,7 +3336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B8" s="61" t="s">
         <v>3</v>
       </c>
@@ -3370,7 +3372,7 @@
       <c r="AF8" s="32"/>
       <c r="AG8" s="32"/>
     </row>
-    <row r="9" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B9" s="46" t="s">
         <v>4</v>
       </c>
@@ -3406,7 +3408,7 @@
       <c r="AF9" s="32"/>
       <c r="AG9" s="32"/>
     </row>
-    <row r="10" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B10" s="46" t="s">
         <v>5</v>
       </c>
@@ -3442,7 +3444,7 @@
       <c r="AF10" s="32"/>
       <c r="AG10" s="32"/>
     </row>
-    <row r="11" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B11" s="46" t="s">
         <v>6</v>
       </c>
@@ -3478,7 +3480,7 @@
       <c r="AF11" s="32"/>
       <c r="AG11" s="32"/>
     </row>
-    <row r="12" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B12" s="46" t="s">
         <v>7</v>
       </c>
@@ -3514,7 +3516,7 @@
       <c r="AF12" s="32"/>
       <c r="AG12" s="32"/>
     </row>
-    <row r="13" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B13" s="47" t="s">
         <v>8</v>
       </c>
@@ -3523,7 +3525,7 @@
       <c r="E13" s="34"/>
       <c r="F13" s="43"/>
     </row>
-    <row r="14" spans="2:33" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="2:33" s="33" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="48" t="s">
         <v>9</v>
       </c>
@@ -3532,7 +3534,7 @@
       <c r="E14" s="34"/>
       <c r="F14" s="43"/>
     </row>
-    <row r="15" spans="2:33" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="2:33" s="33" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="49" t="s">
         <v>10</v>
       </c>
@@ -3541,7 +3543,7 @@
       <c r="E15" s="34"/>
       <c r="F15" s="43"/>
     </row>
-    <row r="16" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B16" s="47" t="s">
         <v>11</v>
       </c>
@@ -3550,7 +3552,7 @@
       <c r="E16" s="34"/>
       <c r="F16" s="43"/>
     </row>
-    <row r="17" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B17" s="47" t="s">
         <v>12</v>
       </c>
@@ -3559,7 +3561,7 @@
       <c r="E17" s="34"/>
       <c r="F17" s="43"/>
     </row>
-    <row r="18" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B18" s="46" t="s">
         <v>13</v>
       </c>
@@ -3595,7 +3597,7 @@
       <c r="AF18" s="32"/>
       <c r="AG18" s="32"/>
     </row>
-    <row r="19" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B19" s="46" t="s">
         <v>14</v>
       </c>
@@ -3631,7 +3633,7 @@
       <c r="AF19" s="32"/>
       <c r="AG19" s="32"/>
     </row>
-    <row r="20" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B20" s="46" t="s">
         <v>15</v>
       </c>
@@ -3667,7 +3669,7 @@
       <c r="AF20" s="32"/>
       <c r="AG20" s="32"/>
     </row>
-    <row r="21" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B21" s="47" t="s">
         <v>16</v>
       </c>
@@ -3676,7 +3678,7 @@
       <c r="E21" s="34"/>
       <c r="F21" s="43"/>
     </row>
-    <row r="22" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B22" s="50" t="s">
         <v>17</v>
       </c>
@@ -3685,7 +3687,7 @@
       <c r="E22" s="34"/>
       <c r="F22" s="43"/>
     </row>
-    <row r="24" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B24" s="24"/>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
@@ -3721,10 +3723,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:33" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:33" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F25" s="43"/>
     </row>
-    <row r="26" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B26" s="24"/>
       <c r="C26" s="24"/>
       <c r="D26" s="24"/>
@@ -3760,7 +3762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B27" s="35" t="s">
         <v>18</v>
       </c>
@@ -3796,7 +3798,7 @@
       <c r="AF27" s="32"/>
       <c r="AG27" s="32"/>
     </row>
-    <row r="28" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B28" s="35" t="s">
         <v>19</v>
       </c>
@@ -3832,7 +3834,7 @@
       <c r="AF28" s="32"/>
       <c r="AG28" s="32"/>
     </row>
-    <row r="29" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B29" s="24"/>
       <c r="C29" s="24"/>
       <c r="D29" s="24"/>
@@ -3868,7 +3870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:33" s="36" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:33" s="36" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="44"/>
       <c r="C30" s="44"/>
       <c r="D30" s="44"/>
@@ -3902,7 +3904,7 @@
       <c r="AF30" s="51"/>
       <c r="AG30" s="51"/>
     </row>
-    <row r="31" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B31" s="24"/>
       <c r="C31" s="24"/>
       <c r="D31" s="24"/>
@@ -3938,18 +3940,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:33" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:33" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B32" s="59" t="s">
         <v>246</v>
       </c>
       <c r="C32" s="34"/>
       <c r="D32" s="50">
-        <v>2052</v>
+        <v>1002052</v>
       </c>
       <c r="E32" s="43"/>
       <c r="F32" s="43"/>
     </row>
-    <row r="33" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B33" s="59" t="s">
         <v>247</v>
       </c>
@@ -3960,7 +3962,7 @@
       <c r="E33" s="43"/>
       <c r="F33" s="43"/>
     </row>
-    <row r="34" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B34" s="59" t="s">
         <v>248</v>
       </c>
@@ -3971,7 +3973,7 @@
       <c r="E34" s="43"/>
       <c r="F34" s="43"/>
     </row>
-    <row r="35" spans="2:33" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:33" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B35" s="59" t="s">
         <v>249</v>
       </c>
@@ -3982,7 +3984,7 @@
       <c r="E35" s="43"/>
       <c r="F35" s="43"/>
     </row>
-    <row r="36" spans="2:33" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:33" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B36" s="59" t="s">
         <v>250</v>
       </c>
@@ -3993,7 +3995,7 @@
       <c r="E36" s="43"/>
       <c r="F36" s="43"/>
     </row>
-    <row r="37" spans="2:33" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:33" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B37" s="57" t="s">
         <v>251</v>
       </c>
@@ -4004,7 +4006,7 @@
       <c r="E37" s="43"/>
       <c r="F37" s="43"/>
     </row>
-    <row r="38" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="38" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B38" s="24"/>
       <c r="C38" s="24"/>
       <c r="D38" s="24"/>
@@ -4040,7 +4042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:33" s="30" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:33" s="30" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="44"/>
       <c r="C39" s="44"/>
       <c r="D39" s="44"/>
@@ -4074,7 +4076,7 @@
       <c r="AF39" s="45"/>
       <c r="AG39" s="45"/>
     </row>
-    <row r="40" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="40" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B40" s="24"/>
       <c r="C40" s="24"/>
       <c r="D40" s="24"/>
@@ -4110,7 +4112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:33" s="10" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="41" spans="2:33" s="10" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
       <c r="B41" s="58" t="s">
         <v>252</v>
       </c>
@@ -4121,7 +4123,7 @@
       <c r="E41" s="53"/>
       <c r="F41" s="43"/>
     </row>
-    <row r="42" spans="2:33" s="10" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="42" spans="2:33" s="10" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
       <c r="B42" s="60" t="s">
         <v>253</v>
       </c>
@@ -4132,7 +4134,7 @@
       <c r="E42" s="53"/>
       <c r="F42" s="43"/>
     </row>
-    <row r="43" spans="2:33" s="10" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="43" spans="2:33" s="10" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
       <c r="B43" s="58" t="s">
         <v>254</v>
       </c>
@@ -4143,7 +4145,7 @@
       <c r="E43" s="53"/>
       <c r="F43" s="43"/>
     </row>
-    <row r="44" spans="2:33" s="10" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="44" spans="2:33" s="10" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
       <c r="B44" s="58" t="s">
         <v>255</v>
       </c>
@@ -4154,7 +4156,7 @@
       <c r="E44" s="53"/>
       <c r="F44" s="43"/>
     </row>
-    <row r="45" spans="2:33" s="10" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="45" spans="2:33" s="10" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
       <c r="B45" s="58" t="s">
         <v>256</v>
       </c>
@@ -4165,7 +4167,7 @@
       <c r="E45" s="53"/>
       <c r="F45" s="43"/>
     </row>
-    <row r="46" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="46" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B46" s="24"/>
       <c r="C46" s="24"/>
       <c r="D46" s="24"/>
@@ -4201,7 +4203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:33" s="30" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:33" s="30" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B47" s="44"/>
       <c r="C47" s="44"/>
       <c r="D47" s="44"/>
@@ -4235,7 +4237,7 @@
       <c r="AF47" s="45"/>
       <c r="AG47" s="45"/>
     </row>
-    <row r="48" spans="2:33" s="26" customFormat="1" ht="15.35" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="2:33" s="26" customFormat="1" ht="15.45" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="24"/>
       <c r="C48" s="24"/>
       <c r="D48" s="24"/>
@@ -4271,7 +4273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:33" s="10" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="2:33" s="10" customFormat="1" ht="50.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B49" s="63" t="s">
         <v>26</v>
       </c>
@@ -4282,7 +4284,7 @@
       <c r="E49" s="53"/>
       <c r="F49" s="43"/>
     </row>
-    <row r="50" spans="2:33" s="10" customFormat="1" ht="45.7" thickTop="1" x14ac:dyDescent="0.5">
+    <row r="50" spans="2:33" s="10" customFormat="1" ht="45.9" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B50" s="37" t="s">
         <v>28</v>
       </c>
@@ -4293,7 +4295,7 @@
       <c r="E50" s="53"/>
       <c r="F50" s="43"/>
     </row>
-    <row r="51" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="51" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B51" s="24"/>
       <c r="C51" s="24"/>
       <c r="D51" s="24"/>
@@ -4329,7 +4331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:33" s="30" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:33" s="30" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B52" s="44"/>
       <c r="C52" s="44"/>
       <c r="D52" s="44"/>
@@ -4363,7 +4365,7 @@
       <c r="AF52" s="45"/>
       <c r="AG52" s="45"/>
     </row>
-    <row r="53" spans="2:33" s="26" customFormat="1" ht="15.35" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="2:33" s="26" customFormat="1" ht="15.45" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B53" s="24"/>
       <c r="C53" s="24"/>
       <c r="D53" s="24"/>
@@ -4399,7 +4401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:33" s="15" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="2:33" s="15" customFormat="1" ht="50.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B54" s="58" t="s">
         <v>211</v>
       </c>
@@ -4410,7 +4412,7 @@
       <c r="E54" s="38"/>
       <c r="F54" s="43"/>
     </row>
-    <row r="55" spans="2:33" s="15" customFormat="1" ht="31" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="2:33" s="15" customFormat="1" ht="31.3" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B55" s="58" t="s">
         <v>213</v>
       </c>
@@ -4421,7 +4423,7 @@
       <c r="E55" s="38"/>
       <c r="F55" s="43"/>
     </row>
-    <row r="56" spans="2:33" s="15" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="2:33" s="15" customFormat="1" ht="50.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B56" s="58" t="s">
         <v>244</v>
       </c>
@@ -4432,7 +4434,7 @@
       <c r="E56" s="38"/>
       <c r="F56" s="43"/>
     </row>
-    <row r="57" spans="2:33" s="15" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="2:33" s="15" customFormat="1" ht="50.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B57" s="58" t="s">
         <v>212</v>
       </c>
@@ -4443,7 +4445,7 @@
       <c r="E57" s="38"/>
       <c r="F57" s="43"/>
     </row>
-    <row r="58" spans="2:33" s="15" customFormat="1" ht="31" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="2:33" s="15" customFormat="1" ht="31.3" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B58" s="58" t="s">
         <v>214</v>
       </c>
@@ -4454,7 +4456,7 @@
       <c r="E58" s="38"/>
       <c r="F58" s="43"/>
     </row>
-    <row r="59" spans="2:33" s="15" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="2:33" s="15" customFormat="1" ht="50.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B59" s="58" t="s">
         <v>243</v>
       </c>
@@ -4465,7 +4467,7 @@
       <c r="E59" s="38"/>
       <c r="F59" s="43"/>
     </row>
-    <row r="60" spans="2:33" s="15" customFormat="1" ht="30.7" thickTop="1" x14ac:dyDescent="0.5">
+    <row r="60" spans="2:33" s="15" customFormat="1" ht="30.9" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B60" s="62" t="s">
         <v>263</v>
       </c>
@@ -4476,7 +4478,7 @@
       <c r="E60" s="38"/>
       <c r="F60" s="43"/>
     </row>
-    <row r="61" spans="2:33" s="15" customFormat="1" ht="45.35" x14ac:dyDescent="0.5">
+    <row r="61" spans="2:33" s="15" customFormat="1" ht="45.45" x14ac:dyDescent="0.4">
       <c r="B61" s="37" t="s">
         <v>216</v>
       </c>
@@ -4487,7 +4489,7 @@
       <c r="E61" s="43"/>
       <c r="F61" s="43"/>
     </row>
-    <row r="62" spans="2:33" s="15" customFormat="1" ht="45.35" x14ac:dyDescent="0.5">
+    <row r="62" spans="2:33" s="15" customFormat="1" ht="45.45" x14ac:dyDescent="0.4">
       <c r="B62" s="58" t="s">
         <v>257</v>
       </c>
@@ -4498,7 +4500,7 @@
       <c r="E62" s="43"/>
       <c r="F62" s="43"/>
     </row>
-    <row r="63" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="63" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B63" s="24"/>
       <c r="C63" s="24"/>
       <c r="D63" s="24"/>
@@ -4534,7 +4536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:33" s="30" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:33" s="30" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B64" s="44"/>
       <c r="C64" s="44"/>
       <c r="D64" s="44"/>
@@ -4568,7 +4570,7 @@
       <c r="AF64" s="45"/>
       <c r="AG64" s="45"/>
     </row>
-    <row r="65" spans="2:33" s="26" customFormat="1" ht="15.35" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="2:33" s="26" customFormat="1" ht="15.45" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B65" s="24"/>
       <c r="C65" s="24"/>
       <c r="D65" s="24"/>
@@ -4604,7 +4606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:33" s="15" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="2:33" s="15" customFormat="1" ht="50.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B66" s="37" t="s">
         <v>245</v>
       </c>
@@ -4615,7 +4617,7 @@
       <c r="E66" s="37"/>
       <c r="F66" s="43"/>
     </row>
-    <row r="67" spans="2:33" s="15" customFormat="1" ht="31" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="2:33" s="15" customFormat="1" ht="31.3" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B67" s="58" t="s">
         <v>218</v>
       </c>
@@ -4626,7 +4628,7 @@
       <c r="E67" s="40"/>
       <c r="F67" s="43"/>
     </row>
-    <row r="68" spans="2:33" s="15" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="2:33" s="15" customFormat="1" ht="50.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B68" s="37" t="s">
         <v>220</v>
       </c>
@@ -4637,7 +4639,7 @@
       <c r="E68" s="43"/>
       <c r="F68" s="43"/>
     </row>
-    <row r="69" spans="2:33" s="15" customFormat="1" ht="30.7" thickTop="1" x14ac:dyDescent="0.5">
+    <row r="69" spans="2:33" s="15" customFormat="1" ht="30.9" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B69" s="58" t="s">
         <v>221</v>
       </c>
@@ -4648,7 +4650,7 @@
       <c r="E69" s="43"/>
       <c r="F69" s="43"/>
     </row>
-    <row r="70" spans="2:33" s="15" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="70" spans="2:33" s="15" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
       <c r="B70" s="58" t="s">
         <v>258</v>
       </c>
@@ -4659,7 +4661,7 @@
       <c r="E70" s="43"/>
       <c r="F70" s="43"/>
     </row>
-    <row r="71" spans="2:33" s="15" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="71" spans="2:33" s="15" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
       <c r="B71" s="58" t="s">
         <v>259</v>
       </c>
@@ -4670,7 +4672,7 @@
       <c r="E71" s="43"/>
       <c r="F71" s="43"/>
     </row>
-    <row r="72" spans="2:33" s="15" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="72" spans="2:33" s="15" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
       <c r="B72" s="37" t="s">
         <v>260</v>
       </c>
@@ -4681,7 +4683,7 @@
       <c r="E72" s="43"/>
       <c r="F72" s="43"/>
     </row>
-    <row r="73" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="73" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B73" s="24"/>
       <c r="C73" s="24"/>
       <c r="D73" s="24"/>
@@ -4717,10 +4719,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:33" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="74" spans="2:33" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F74" s="43"/>
     </row>
-    <row r="76" spans="2:33" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.5">
+    <row r="76" spans="2:33" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.4">
       <c r="B76" s="37" t="s">
         <v>262</v>
       </c>
@@ -4785,19 +4787,19 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.703125" customWidth="1"/>
-    <col min="2" max="3" width="10.64453125" customWidth="1"/>
-    <col min="4" max="4" width="80.64453125" customWidth="1"/>
+    <col min="1" max="1" width="3.69140625" customWidth="1"/>
+    <col min="2" max="3" width="10.61328125" customWidth="1"/>
+    <col min="4" max="4" width="80.61328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" s="8" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:4" s="8" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="8" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -4805,7 +4807,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -4813,7 +4815,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -4821,17 +4823,17 @@
         <v>267</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B9" s="7" t="s">
         <v>268</v>
       </c>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B10" s="7"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>269</v>
       </c>
@@ -4842,7 +4844,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="43" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:4" ht="43.75" x14ac:dyDescent="0.4">
       <c r="B12" s="15" t="s">
         <v>271</v>
       </c>
@@ -4853,72 +4855,72 @@
         <v>272</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B13" s="15"/>
       <c r="C13" s="65"/>
       <c r="D13" s="15"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B15" s="15"/>
       <c r="C15" s="65"/>
       <c r="D15" s="15"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
@@ -4942,25 +4944,25 @@
       <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.703125" customWidth="1"/>
-    <col min="2" max="2" width="10.703125" customWidth="1"/>
-    <col min="3" max="3" width="45.703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.41015625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5859375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.69140625" customWidth="1"/>
+    <col min="2" max="2" width="10.69140625" customWidth="1"/>
+    <col min="3" max="3" width="45.69140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.3828125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.61328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="45.703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="45.69140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" s="13" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:18" s="13" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="13" t="s">
         <v>33</v>
       </c>
       <c r="C2" s="14"/>
       <c r="G2" s="14"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
       <c r="G3" s="17"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
@@ -4974,7 +4976,7 @@
       <c r="Q3" s="11"/>
       <c r="R3" s="11"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -4982,15 +4984,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B10" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B11" s="7"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
         <v>37</v>
       </c>
@@ -4998,7 +5000,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:18" s="10" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="B13" s="10" t="s">
         <v>39</v>
       </c>
@@ -5008,7 +5010,7 @@
       <c r="D13" s="16"/>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:18" s="10" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:18" s="10" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="B14" s="10" t="s">
         <v>41</v>
       </c>
@@ -5018,7 +5020,7 @@
       <c r="D14" s="16"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:18" s="10" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:18" s="10" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="B15" s="15" t="s">
         <v>43</v>
       </c>
@@ -5028,7 +5030,7 @@
       <c r="D15" s="16"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B16" s="10" t="s">
         <v>45</v>
       </c>
@@ -5038,7 +5040,7 @@
       <c r="D16" s="16"/>
       <c r="G16" s="15"/>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B18" s="7" t="s">
         <v>47</v>
       </c>
@@ -5055,7 +5057,7 @@
       <c r="Q18" s="11"/>
       <c r="R18" s="11"/>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.4">
       <c r="G19" s="17"/>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
@@ -5069,7 +5071,7 @@
       <c r="Q19" s="11"/>
       <c r="R19" s="11"/>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
         <v>48</v>
       </c>
@@ -5100,7 +5102,7 @@
       <c r="Q20" s="11"/>
       <c r="R20" s="11"/>
     </row>
-    <row r="21" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B21" s="10">
         <v>1</v>
       </c>
@@ -5119,7 +5121,7 @@
       </c>
       <c r="G21" s="15"/>
     </row>
-    <row r="22" spans="2:18" s="10" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:18" s="10" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="B22" s="10">
         <v>2</v>
       </c>
@@ -5138,7 +5140,7 @@
       </c>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="2:18" s="10" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:18" s="10" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="B23" s="10">
         <v>3</v>
       </c>
@@ -5157,7 +5159,7 @@
       </c>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="2:18" s="10" customFormat="1" ht="71.7" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:18" s="10" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="B24" s="10">
         <v>4</v>
       </c>
@@ -5177,7 +5179,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B25" s="10">
         <v>5</v>
       </c>
@@ -5196,7 +5198,7 @@
       </c>
       <c r="G25" s="15"/>
     </row>
-    <row r="26" spans="2:18" s="10" customFormat="1" ht="114.7" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:18" s="10" customFormat="1" ht="131.15" x14ac:dyDescent="0.4">
       <c r="B26" s="10">
         <v>6</v>
       </c>
@@ -5217,7 +5219,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="2:18" s="10" customFormat="1" ht="57.35" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:18" s="10" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
       <c r="B27" s="10">
         <v>7</v>
       </c>
@@ -5238,7 +5240,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="2:18" s="10" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:18" s="10" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="B28" s="10">
         <v>8</v>
       </c>
@@ -5257,7 +5259,7 @@
       </c>
       <c r="G28" s="15"/>
     </row>
-    <row r="29" spans="2:18" s="18" customFormat="1" ht="129" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:18" s="18" customFormat="1" ht="131.15" x14ac:dyDescent="0.4">
       <c r="B29" s="10">
         <v>9</v>
       </c>
@@ -5278,7 +5280,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="30" spans="2:18" s="18" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:18" s="18" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="B30" s="10">
         <v>10</v>
       </c>
@@ -5297,7 +5299,7 @@
       </c>
       <c r="G30" s="19"/>
     </row>
-    <row r="31" spans="2:18" s="18" customFormat="1" ht="301" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:18" s="18" customFormat="1" ht="320.60000000000002" x14ac:dyDescent="0.4">
       <c r="B31" s="10">
         <v>11</v>
       </c>
@@ -5318,7 +5320,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="32" spans="2:18" s="18" customFormat="1" ht="71.7" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:18" s="18" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="B32" s="10">
         <v>12</v>
       </c>
@@ -5339,7 +5341,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="33" spans="2:7" s="18" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:7" s="18" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="B33" s="10">
         <v>13</v>
       </c>
@@ -5360,7 +5362,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="2:7" s="18" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:7" s="18" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="B34" s="10">
         <v>14</v>
       </c>
@@ -5381,7 +5383,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="35" spans="2:7" s="18" customFormat="1" ht="272.35000000000002" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:7" s="18" customFormat="1" ht="306" x14ac:dyDescent="0.4">
       <c r="B35" s="10">
         <v>15</v>
       </c>
@@ -5402,7 +5404,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="36" spans="2:7" ht="57.35" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:7" ht="58.3" x14ac:dyDescent="0.4">
       <c r="B36" s="10">
         <v>16</v>
       </c>
@@ -5423,7 +5425,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="37" spans="2:7" s="10" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:7" s="10" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="B37" s="10">
         <v>17</v>
       </c>
@@ -5442,7 +5444,7 @@
       </c>
       <c r="G37" s="15"/>
     </row>
-    <row r="38" spans="2:7" s="18" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="38" spans="2:7" s="18" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="B38" s="10">
         <v>18</v>
       </c>
@@ -5463,7 +5465,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="2:7" s="10" customFormat="1" ht="57.35" x14ac:dyDescent="0.5">
+    <row r="39" spans="2:7" s="10" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="B39" s="10">
         <v>19</v>
       </c>
@@ -5484,7 +5486,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="2:7" s="10" customFormat="1" ht="229.35" x14ac:dyDescent="0.5">
+    <row r="40" spans="2:7" s="10" customFormat="1" ht="247.75" x14ac:dyDescent="0.4">
       <c r="B40" s="10">
         <v>20</v>
       </c>
@@ -5505,7 +5507,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="41" spans="2:7" s="10" customFormat="1" ht="315.35000000000002" x14ac:dyDescent="0.5">
+    <row r="41" spans="2:7" s="10" customFormat="1" ht="320.60000000000002" x14ac:dyDescent="0.4">
       <c r="B41" s="10">
         <v>21</v>
       </c>
@@ -5522,7 +5524,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="42" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="42" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B42" s="10">
         <v>22</v>
       </c>
@@ -5541,77 +5543,77 @@
       </c>
       <c r="G42" s="15"/>
     </row>
-    <row r="43" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="43" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C43" s="15"/>
       <c r="D43" s="16"/>
       <c r="G43" s="15"/>
     </row>
-    <row r="44" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="44" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C44" s="15"/>
       <c r="D44" s="16"/>
       <c r="G44" s="15"/>
     </row>
-    <row r="45" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="45" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C45" s="15"/>
       <c r="D45" s="16"/>
       <c r="G45" s="15"/>
     </row>
-    <row r="46" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="46" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C46" s="15"/>
       <c r="D46" s="16"/>
       <c r="G46" s="15"/>
     </row>
-    <row r="47" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="47" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C47" s="15"/>
       <c r="D47" s="16"/>
       <c r="G47" s="15"/>
     </row>
-    <row r="48" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="48" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C48" s="15"/>
       <c r="D48" s="16"/>
       <c r="G48" s="15"/>
     </row>
-    <row r="50" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="50" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C50" s="15"/>
       <c r="G50" s="15"/>
     </row>
-    <row r="51" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="51" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C51" s="15"/>
       <c r="G51" s="15"/>
     </row>
-    <row r="52" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="52" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C52" s="15"/>
       <c r="G52" s="15"/>
     </row>
-    <row r="53" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="53" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C53" s="15"/>
       <c r="G53" s="15"/>
     </row>
-    <row r="54" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="54" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C54" s="15"/>
       <c r="G54" s="15"/>
     </row>
-    <row r="55" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="55" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C55" s="15"/>
       <c r="G55" s="15"/>
     </row>
-    <row r="56" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="56" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C56" s="15"/>
       <c r="G56" s="15"/>
     </row>
-    <row r="57" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="57" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C57" s="15"/>
       <c r="G57" s="15"/>
     </row>
-    <row r="58" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="58" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C58" s="15"/>
       <c r="G58" s="15"/>
     </row>
-    <row r="59" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="59" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C59" s="15"/>
       <c r="G59" s="15"/>
     </row>
-    <row r="60" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="60" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C60" s="15"/>
       <c r="G60" s="15"/>
     </row>
@@ -5639,14 +5641,14 @@
       <selection activeCell="B69" sqref="B69:B78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.703125" customWidth="1"/>
-    <col min="2" max="2" width="91.29296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="86.1171875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.69140625" customWidth="1"/>
+    <col min="2" max="2" width="91.3046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="86.07421875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>
       <c r="H1" s="11"/>
@@ -5660,12 +5662,12 @@
       <c r="P1" s="11"/>
       <c r="Q1" s="11"/>
     </row>
-    <row r="2" spans="1:17" s="13" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:17" s="13" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="13" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
@@ -5679,7 +5681,7 @@
       <c r="P3" s="11"/>
       <c r="Q3" s="11"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -5687,7 +5689,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -5695,7 +5697,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -5703,7 +5705,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
@@ -5717,7 +5719,7 @@
       <c r="P8" s="11"/>
       <c r="Q8" s="11"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
@@ -5731,7 +5733,7 @@
       <c r="P9" s="11"/>
       <c r="Q9" s="11"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B10" s="7" t="s">
         <v>96</v>
       </c>
@@ -5748,7 +5750,7 @@
       <c r="P10" s="11"/>
       <c r="Q10" s="11"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B11" s="7"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
@@ -5763,7 +5765,7 @@
       <c r="P11" s="11"/>
       <c r="Q11" s="11"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
         <v>30</v>
       </c>
@@ -5780,7 +5782,7 @@
       <c r="P12" s="11"/>
       <c r="Q12" s="11"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
         <v>27</v>
       </c>
@@ -5797,7 +5799,7 @@
       <c r="P13" s="11"/>
       <c r="Q13" s="11"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
         <v>97</v>
       </c>
@@ -5814,7 +5816,7 @@
       <c r="P14" s="11"/>
       <c r="Q14" s="11"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
@@ -5828,7 +5830,7 @@
       <c r="P15" s="11"/>
       <c r="Q15" s="11"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
@@ -5842,7 +5844,7 @@
       <c r="P16" s="11"/>
       <c r="Q16" s="11"/>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.4">
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
@@ -5856,7 +5858,7 @@
       <c r="P17" s="11"/>
       <c r="Q17" s="11"/>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B18" s="7" t="s">
         <v>201</v>
       </c>
@@ -5873,7 +5875,7 @@
       <c r="P18" s="11"/>
       <c r="Q18" s="11"/>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.4">
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
@@ -5887,7 +5889,7 @@
       <c r="P19" s="11"/>
       <c r="Q19" s="11"/>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
         <v>30</v>
       </c>
@@ -5904,7 +5906,7 @@
       <c r="P20" s="11"/>
       <c r="Q20" s="11"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
         <v>206</v>
       </c>
@@ -5921,7 +5923,7 @@
       <c r="P21" s="11"/>
       <c r="Q21" s="11"/>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
         <v>98</v>
       </c>
@@ -5938,7 +5940,7 @@
       <c r="P22" s="11"/>
       <c r="Q22" s="11"/>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
         <v>202</v>
       </c>
@@ -5955,7 +5957,7 @@
       <c r="P23" s="11"/>
       <c r="Q23" s="11"/>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
         <v>203</v>
       </c>
@@ -5972,7 +5974,7 @@
       <c r="P24" s="11"/>
       <c r="Q24" s="11"/>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
         <v>204</v>
       </c>
@@ -5989,7 +5991,7 @@
       <c r="P25" s="11"/>
       <c r="Q25" s="11"/>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
         <v>205</v>
       </c>
@@ -6006,7 +6008,7 @@
       <c r="P26" s="11"/>
       <c r="Q26" s="11"/>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.4">
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
@@ -6020,7 +6022,7 @@
       <c r="P27" s="11"/>
       <c r="Q27" s="11"/>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B28" s="7" t="s">
         <v>209</v>
       </c>
@@ -6037,7 +6039,7 @@
       <c r="P28" s="11"/>
       <c r="Q28" s="11"/>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.4">
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
@@ -6051,7 +6053,7 @@
       <c r="P29" s="11"/>
       <c r="Q29" s="11"/>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
         <v>30</v>
       </c>
@@ -6068,7 +6070,7 @@
       <c r="P30" s="11"/>
       <c r="Q30" s="11"/>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
         <v>207</v>
       </c>
@@ -6085,7 +6087,7 @@
       <c r="P31" s="11"/>
       <c r="Q31" s="11"/>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
         <v>98</v>
       </c>
@@ -6102,7 +6104,7 @@
       <c r="P32" s="11"/>
       <c r="Q32" s="11"/>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
         <v>208</v>
       </c>
@@ -6119,7 +6121,7 @@
       <c r="P33" s="11"/>
       <c r="Q33" s="11"/>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
         <v>202</v>
       </c>
@@ -6136,7 +6138,7 @@
       <c r="P34" s="11"/>
       <c r="Q34" s="11"/>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
         <v>203</v>
       </c>
@@ -6153,7 +6155,7 @@
       <c r="P35" s="11"/>
       <c r="Q35" s="11"/>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B36" t="s">
         <v>204</v>
       </c>
@@ -6170,7 +6172,7 @@
       <c r="P36" s="11"/>
       <c r="Q36" s="11"/>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B37" t="s">
         <v>205</v>
       </c>
@@ -6187,7 +6189,7 @@
       <c r="P37" s="11"/>
       <c r="Q37" s="11"/>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.4">
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
       <c r="H38" s="11"/>
@@ -6201,7 +6203,7 @@
       <c r="P38" s="11"/>
       <c r="Q38" s="11"/>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B39" s="7" t="s">
         <v>210</v>
       </c>
@@ -6218,7 +6220,7 @@
       <c r="P39" s="11"/>
       <c r="Q39" s="11"/>
     </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="40" spans="2:17" x14ac:dyDescent="0.4">
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
       <c r="H40" s="11"/>
@@ -6232,7 +6234,7 @@
       <c r="P40" s="11"/>
       <c r="Q40" s="11"/>
     </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="41" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B41" t="s">
         <v>30</v>
       </c>
@@ -6249,7 +6251,7 @@
       <c r="P41" s="11"/>
       <c r="Q41" s="11"/>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B42" t="s">
         <v>207</v>
       </c>
@@ -6266,7 +6268,7 @@
       <c r="P42" s="11"/>
       <c r="Q42" s="11"/>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B43" t="s">
         <v>98</v>
       </c>
@@ -6283,7 +6285,7 @@
       <c r="P43" s="11"/>
       <c r="Q43" s="11"/>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
         <v>208</v>
       </c>
@@ -6300,7 +6302,7 @@
       <c r="P44" s="11"/>
       <c r="Q44" s="11"/>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B45" t="s">
         <v>202</v>
       </c>
@@ -6317,7 +6319,7 @@
       <c r="P45" s="11"/>
       <c r="Q45" s="11"/>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B46" t="s">
         <v>203</v>
       </c>
@@ -6334,7 +6336,7 @@
       <c r="P46" s="11"/>
       <c r="Q46" s="11"/>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.4">
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
       <c r="H47" s="11"/>
@@ -6348,7 +6350,7 @@
       <c r="P47" s="11"/>
       <c r="Q47" s="11"/>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.4">
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
       <c r="H48" s="11"/>
@@ -6362,7 +6364,7 @@
       <c r="P48" s="11"/>
       <c r="Q48" s="11"/>
     </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="49" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B49" s="7" t="s">
         <v>99</v>
       </c>
@@ -6379,7 +6381,7 @@
       <c r="P49" s="11"/>
       <c r="Q49" s="11"/>
     </row>
-    <row r="50" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="50" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B50" s="7"/>
       <c r="F50" s="11"/>
       <c r="G50" s="11"/>
@@ -6394,7 +6396,7 @@
       <c r="P50" s="11"/>
       <c r="Q50" s="11"/>
     </row>
-    <row r="51" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="51" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B51" t="s">
         <v>30</v>
       </c>
@@ -6411,7 +6413,7 @@
       <c r="P51" s="11"/>
       <c r="Q51" s="11"/>
     </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="52" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B52" t="s">
         <v>100</v>
       </c>
@@ -6428,7 +6430,7 @@
       <c r="P52" s="11"/>
       <c r="Q52" s="11"/>
     </row>
-    <row r="53" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="53" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B53" t="s">
         <v>101</v>
       </c>
@@ -6445,7 +6447,7 @@
       <c r="P53" s="11"/>
       <c r="Q53" s="11"/>
     </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="54" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B54" t="s">
         <v>102</v>
       </c>
@@ -6462,7 +6464,7 @@
       <c r="P54" s="11"/>
       <c r="Q54" s="11"/>
     </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="55" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B55" t="s">
         <v>103</v>
       </c>
@@ -6479,7 +6481,7 @@
       <c r="P55" s="11"/>
       <c r="Q55" s="11"/>
     </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="56" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B56" t="s">
         <v>104</v>
       </c>
@@ -6496,7 +6498,7 @@
       <c r="P56" s="11"/>
       <c r="Q56" s="11"/>
     </row>
-    <row r="57" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="57" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B57" t="s">
         <v>105</v>
       </c>
@@ -6513,7 +6515,7 @@
       <c r="P57" s="11"/>
       <c r="Q57" s="11"/>
     </row>
-    <row r="58" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="58" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B58" t="s">
         <v>106</v>
       </c>
@@ -6530,7 +6532,7 @@
       <c r="P58" s="11"/>
       <c r="Q58" s="11"/>
     </row>
-    <row r="59" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="59" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B59" t="s">
         <v>107</v>
       </c>
@@ -6547,7 +6549,7 @@
       <c r="P59" s="11"/>
       <c r="Q59" s="11"/>
     </row>
-    <row r="60" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="60" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B60" t="s">
         <v>108</v>
       </c>
@@ -6564,7 +6566,7 @@
       <c r="P60" s="11"/>
       <c r="Q60" s="11"/>
     </row>
-    <row r="61" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="61" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B61" t="s">
         <v>109</v>
       </c>
@@ -6581,7 +6583,7 @@
       <c r="P61" s="11"/>
       <c r="Q61" s="11"/>
     </row>
-    <row r="62" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="62" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B62" t="s">
         <v>110</v>
       </c>
@@ -6598,7 +6600,7 @@
       <c r="P62" s="11"/>
       <c r="Q62" s="11"/>
     </row>
-    <row r="63" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="63" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B63" t="s">
         <v>111</v>
       </c>
@@ -6615,7 +6617,7 @@
       <c r="P63" s="11"/>
       <c r="Q63" s="11"/>
     </row>
-    <row r="64" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="64" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B64" t="s">
         <v>112</v>
       </c>
@@ -6632,7 +6634,7 @@
       <c r="P64" s="11"/>
       <c r="Q64" s="11"/>
     </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="65" spans="2:17" x14ac:dyDescent="0.4">
       <c r="F65" s="11"/>
       <c r="G65" s="11"/>
       <c r="H65" s="11"/>
@@ -6646,7 +6648,7 @@
       <c r="P65" s="11"/>
       <c r="Q65" s="11"/>
     </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="66" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B66" s="7" t="s">
         <v>113</v>
       </c>
@@ -6663,7 +6665,7 @@
       <c r="P66" s="11"/>
       <c r="Q66" s="11"/>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B67" s="7"/>
       <c r="F67" s="11"/>
       <c r="G67" s="11"/>
@@ -6678,7 +6680,7 @@
       <c r="P67" s="11"/>
       <c r="Q67" s="11"/>
     </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="68" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B68" t="s">
         <v>30</v>
       </c>
@@ -6695,7 +6697,7 @@
       <c r="P68" s="11"/>
       <c r="Q68" s="11"/>
     </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="69" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B69" s="2" t="s">
         <v>114</v>
       </c>
@@ -6712,70 +6714,70 @@
       <c r="P69" s="11"/>
       <c r="Q69" s="11"/>
     </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="70" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="71" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B71" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="72" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B72" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B73" s="6" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="74" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B74" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="75" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B75" s="5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="76" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B76" s="5" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B77" s="5" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="78" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="78" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B78" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B80" s="7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="81" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="81" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B81" s="7"/>
     </row>
-    <row r="82" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="82" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B82" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="83" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="83" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B83" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="84" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="84" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B84" s="1" t="s">
         <v>125</v>
       </c>
@@ -6792,32 +6794,32 @@
       <c r="P84" s="11"/>
       <c r="Q84" s="11"/>
     </row>
-    <row r="85" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="85" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B85" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="86" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="86" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B86" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="87" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="87" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B87" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="88" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="88" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B88" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="89" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="89" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B89" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="92" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="92" spans="2:17" x14ac:dyDescent="0.4">
       <c r="F92" s="11"/>
       <c r="G92" s="11"/>
       <c r="H92" s="11"/>
@@ -6856,19 +6858,19 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.703125" customWidth="1"/>
-    <col min="2" max="3" width="30.703125" customWidth="1"/>
-    <col min="4" max="9" width="8.703125" customWidth="1"/>
+    <col min="1" max="1" width="3.69140625" customWidth="1"/>
+    <col min="2" max="3" width="30.69140625" customWidth="1"/>
+    <col min="4" max="9" width="8.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" s="13" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:3" s="13" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="13" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -6876,7 +6878,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -6884,7 +6886,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -6892,7 +6894,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -6900,7 +6902,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="8" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:3" s="8" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="8" t="s">
         <v>135</v>
       </c>
@@ -6908,7 +6910,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
         <v>137</v>
       </c>
@@ -6931,18 +6933,18 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.703125" customWidth="1"/>
-    <col min="2" max="3" width="30.703125" customWidth="1"/>
+    <col min="1" max="1" width="3.69140625" customWidth="1"/>
+    <col min="2" max="3" width="30.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" s="13" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:3" s="13" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="13" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -6950,7 +6952,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -6958,7 +6960,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -6966,7 +6968,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -6974,12 +6976,12 @@
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="10" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="11" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="12" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="13" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="14" spans="1:3" s="8" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="10" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="11" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="12" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="13" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:3" s="8" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="8" t="s">
         <v>141</v>
       </c>
@@ -6987,7 +6989,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
         <v>143</v>
       </c>
@@ -6995,7 +6997,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
         <v>145</v>
       </c>
@@ -7003,7 +7005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
         <v>146</v>
       </c>
@@ -7027,17 +7029,17 @@
       <selection activeCell="A11" sqref="A11:R40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.703125" customWidth="1"/>
-    <col min="2" max="2" width="19.5859375" customWidth="1"/>
-    <col min="3" max="3" width="10.1171875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.29296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.41015625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="75.1171875" customWidth="1"/>
+    <col min="1" max="1" width="3.69140625" customWidth="1"/>
+    <col min="2" max="2" width="19.61328125" customWidth="1"/>
+    <col min="3" max="3" width="10.07421875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.3046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.3828125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="75.07421875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="13" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:18" s="13" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="13" t="s">
         <v>147</v>
       </c>
@@ -7045,7 +7047,7 @@
       <c r="F1" s="20"/>
       <c r="G1" s="14"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
       <c r="C2" s="1"/>
       <c r="F2" s="9"/>
       <c r="G2" s="17"/>
@@ -7061,7 +7063,7 @@
       <c r="Q2" s="11"/>
       <c r="R2" s="11"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -7072,35 +7074,35 @@
       <c r="F3" s="9"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
       <c r="C4" s="1"/>
       <c r="F4" s="9"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
       <c r="C5" s="1"/>
       <c r="F5" s="9"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
       <c r="C6" s="1"/>
       <c r="F6" s="9"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
       <c r="C7" s="1"/>
       <c r="F7" s="9"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
       <c r="C8" s="1"/>
       <c r="F8" s="9"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:18" s="8" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:18" s="8" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="8" t="s">
         <v>135</v>
       </c>
@@ -7117,7 +7119,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>137</v>
       </c>
@@ -7134,7 +7136,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
         <v>137</v>
       </c>
@@ -7151,7 +7153,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
         <v>137</v>
       </c>
@@ -7168,7 +7170,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
         <v>137</v>
       </c>
@@ -7185,7 +7187,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
         <v>137</v>
       </c>
@@ -7202,7 +7204,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
         <v>137</v>
       </c>
@@ -7219,7 +7221,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
         <v>137</v>
       </c>
@@ -7236,7 +7238,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
         <v>137</v>
       </c>
@@ -7253,7 +7255,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
         <v>137</v>
       </c>
@@ -7270,7 +7272,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
         <v>137</v>
       </c>
@@ -7287,7 +7289,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
         <v>137</v>
       </c>
@@ -7304,7 +7306,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
         <v>137</v>
       </c>
@@ -7321,7 +7323,7 @@
         <v>1000011</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
         <v>137</v>
       </c>
@@ -7338,7 +7340,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
         <v>137</v>
       </c>
@@ -7355,7 +7357,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
         <v>137</v>
       </c>
@@ -7372,7 +7374,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
         <v>137</v>
       </c>
@@ -7389,7 +7391,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
         <v>137</v>
       </c>
@@ -7406,7 +7408,7 @@
         <v>35.321100000000001</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
         <v>137</v>
       </c>
@@ -7423,7 +7425,7 @@
         <v>-119.5808</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
         <v>137</v>
       </c>
@@ -7440,7 +7442,7 @@
         <v>45152</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
         <v>137</v>
       </c>
@@ -7457,7 +7459,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
         <v>137</v>
       </c>
@@ -7474,7 +7476,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
         <v>137</v>
       </c>
@@ -7491,7 +7493,7 @@
         <v>45468</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
         <v>137</v>
       </c>
@@ -7508,7 +7510,7 @@
         <v>45152</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
         <v>137</v>
       </c>
@@ -7525,7 +7527,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
         <v>137</v>
       </c>
@@ -7542,7 +7544,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B36" t="s">
         <v>137</v>
       </c>
@@ -7559,7 +7561,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B37" t="s">
         <v>137</v>
       </c>
@@ -7576,7 +7578,7 @@
         <v>45159.666666666664</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B38" t="s">
         <v>137</v>
       </c>
@@ -7593,7 +7595,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B39" t="s">
         <v>137</v>
       </c>
@@ -7610,7 +7612,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B40" t="s">
         <v>137</v>
       </c>
@@ -7648,6 +7650,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="e20ceb87-0d79-402a-b4b9-75d78589c76d" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000E9A34E7C7C736409D4BDE6375CCC276" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0cf521a6d855790dbe6a6d894ff439cd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32" xmlns:ns3="e20ceb87-0d79-402a-b4b9-75d78589c76d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a45aa6d812898c4b0f52b4c3685679ce" ns2:_="" ns3:_="">
     <xsd:import namespace="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32"/>
@@ -7882,17 +7895,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="e20ceb87-0d79-402a-b4b9-75d78589c76d" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{393EEAE4-A9A0-45DD-A8E7-CAAABB0BE8BF}">
   <ds:schemaRefs>
@@ -7902,6 +7904,17 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{368BC477-8FFD-4C56-8224-F3CCFEFBFA36}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e20ceb87-0d79-402a-b4b9-75d78589c76d"/>
+    <ds:schemaRef ds:uri="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{533C6BB5-3BBA-46E5-A63A-38A55F0F20F9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7918,15 +7931,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{368BC477-8FFD-4C56-8224-F3CCFEFBFA36}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e20ceb87-0d79-402a-b4b9-75d78589c76d"/>
-    <ds:schemaRef ds:uri="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>